--- a/Prefered_PARX_model_forecast/RollingWindow/MSFE_PARX.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/MSFE_PARX.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -40,16 +40,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Prefered_PARX_model_forecast/RollingWindow/MSFE_PARX.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/MSFE_PARX.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +70,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -63,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A364"/>
+  <dimension ref="A1:A434"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -71,1822 +103,2172 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.0352461962821478</v>
+        <v>400.19873685947624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.8366697676670078</v>
+        <v>270.7648735639587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.3878494607902707</v>
+        <v>96599.607989474694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.1128971082825707</v>
+        <v>77438.898520341012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.8298280127839135</v>
+        <v>64544.01941384191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2.4627129249795416</v>
+        <v>55338.932600157939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4.21993264133864</v>
+        <v>48458.152743004561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>3.8075562780591992</v>
+        <v>43080.035755796001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3.4966057628398723</v>
+        <v>38779.064407672064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>3.3340371241796798</v>
+        <v>36156.723668025079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>3.6867304661630627</v>
+        <v>33146.165216334557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>3.4252133340573137</v>
+        <v>30606.471424008872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>3.640123155622244</v>
+        <v>28424.105053382493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>3.5715638398682659</v>
+        <v>26532.240605701343</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3.4752614334801035</v>
+        <v>24877.470711186168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3.6378903159209375</v>
+        <v>23415.835562471737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3.543001479925687</v>
+        <v>22116.480766306631</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3.8955911039543509</v>
+        <v>20953.075570382051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>3.7083503898078498</v>
+        <v>19911.054586990085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3.6121950708918598</v>
+        <v>18974.171513827339</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4.3892079596182914</v>
+        <v>18111.814807713268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4.3009176905895705</v>
+        <v>17324.45693624263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4.2739517520886183</v>
+        <v>16608.245714454184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4.1468672356834473</v>
+        <v>15945.061706660181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4.9892989024906029</v>
+        <v>15332.508961350464</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5.5332365663388092</v>
+        <v>14765.294568431707</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>5.4964654064938196</v>
+        <v>14242.871768455991</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>5.6247388793110131</v>
+        <v>13753.864983489861</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5.5003212193638538</v>
+        <v>13295.422474192792</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>6.5973922938951919</v>
+        <v>12867.25578969384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>6.9910160504168299</v>
+        <v>12468.520130560943</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>7.6015774210431992</v>
+        <v>12091.944545844377</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>7.5196720583546934</v>
+        <v>11736.863918707555</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>7.7440129480109396</v>
+        <v>11403.539321782031</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>7.6708123148090994</v>
+        <v>11087.950601335924</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>7.5079952466949349</v>
+        <v>10788.623939873067</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>7.62229681412889</v>
+        <v>10505.292422109031</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>7.4297961980505187</v>
+        <v>10236.775284786072</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>7.2964498587025446</v>
+        <v>9981.0456355579227</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>7.2957791148850939</v>
+        <v>9738.1419898216172</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>7.749203364696303</v>
+        <v>9508.1080844056305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>7.6089647718156979</v>
+        <v>9287.0614191136683</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>7.8514914064645582</v>
+        <v>9076.2755651889765</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>8.8879581383887114</v>
+        <v>8875.0853108413121</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>8.8649849310699143</v>
+        <v>8682.1626882873024</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>8.6863013670444289</v>
+        <v>8497.4496398358988</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>9.1314360773762253</v>
+        <v>8320.4332270811647</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>9.2118523239166858</v>
+        <v>8151.3207852202049</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>9.0876397016031163</v>
+        <v>7988.5905776275195</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>9.075045379502896</v>
+        <v>7831.9649986250188</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>8.9756443139847804</v>
+        <v>7681.4158018601138</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>9.6381848491802646</v>
+        <v>7537.3608193310693</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>9.5030799315212295</v>
+        <v>7398.2127423675165</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>9.3378655372705825</v>
+        <v>7263.7600409791921</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>9.2788686136095588</v>
+        <v>7134.3068916726925</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>9.1173324321671991</v>
+        <v>7009.4011873906311</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>9.0160489069914131</v>
+        <v>6888.8049707795644</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>9.3392918001596357</v>
+        <v>6772.446574442477</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>9.9598622735733251</v>
+        <v>6659.8209629576013</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>9.867070782005559</v>
+        <v>6550.7884635081255</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>9.8078634402470506</v>
+        <v>6445.2060264938973</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>10.325073898198369</v>
+        <v>6342.9680728404655</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>11.892143430402703</v>
+        <v>6243.8639305891265</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>12.537521731082601</v>
+        <v>6147.925602537749</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>12.740645973298165</v>
+        <v>6054.7758932515362</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>12.562967424687423</v>
+        <v>5964.6151144461592</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>13.191505372534387</v>
+        <v>5876.9480455597968</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>14.316469993064153</v>
+        <v>5791.7820953316141</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>14.921712574635187</v>
+        <v>5709.1078732504311</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>17.716207676045293</v>
+        <v>5628.853756612606</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>18.394181675760485</v>
+        <v>5550.6876948171684</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>19.824132719417793</v>
+        <v>5474.6557963752157</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>21.057385529335875</v>
+        <v>5400.6819897733403</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>25.260709006300608</v>
+        <v>5328.7047767094646</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>26.323723488952076</v>
+        <v>5258.5942134423594</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>27.610313432764514</v>
+        <v>5190.3070086795105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>33.2585752615499</v>
+        <v>5123.86565022993</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>36.401107438534609</v>
+        <v>5059.0610543591738</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>39.891866740665535</v>
+        <v>4995.8816216502219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>40.721967982799228</v>
+        <v>4934.2176289836634</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>45.243268478326691</v>
+        <v>4874.0656804624487</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>51.003164281430934</v>
+        <v>4815.346276787096</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>52.814349445596399</v>
+        <v>4758.0456125502405</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>52.873717271814229</v>
+        <v>4702.0712937612316</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>54.945011964078105</v>
+        <v>4647.3975869838059</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>58.077912718096208</v>
+        <v>4594.004301056947</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>58.583597591399013</v>
+        <v>4541.8025450201085</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>60.877586622173347</v>
+        <v>4490.8362941894184</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>64.52487657327886</v>
+        <v>4440.9419005064547</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>66.487836632025818</v>
+        <v>4392.1405453786329</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>66.318705589834266</v>
+        <v>4344.5137327902285</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>68.819719641022616</v>
+        <v>4297.7986045796451</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>75.9578434622656</v>
+        <v>4252.0805085396087</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>75.422817736892938</v>
+        <v>4207.3227618431174</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>75.731925994128474</v>
+        <v>4163.622617772905</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>75.196606473235221</v>
+        <v>4120.7489854349315</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>75.792702573994745</v>
+        <v>4078.7027663309527</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>76.603046295052465</v>
+        <v>4037.5049421790877</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>77.118436530656396</v>
+        <v>3997.1585232731059</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>80.82301459427039</v>
+        <v>3957.6654228309726</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>81.880381257070368</v>
+        <v>3918.8776466651202</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>83.937963173185423</v>
+        <v>3880.9008006339445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>85.738748207055025</v>
+        <v>3843.6087031620573</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>87.573435872096994</v>
+        <v>3807.0032325294555</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>87.844708490840588</v>
+        <v>3771.1279270080026</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>90.642158078018397</v>
+        <v>3735.9756949067942</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>93.640620693599701</v>
+        <v>3701.3941324408161</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>93.578366595428378</v>
+        <v>3667.4681032957265</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>95.702630085480251</v>
+        <v>3634.1719014455953</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>95.877538167204676</v>
+        <v>3601.4378258095398</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>98.547083526352836</v>
+        <v>3569.3033312435264</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>100.07565289655192</v>
+        <v>3537.7731912742347</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>103.25546161925233</v>
+        <v>3506.7401728613827</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>107.62886021085716</v>
+        <v>3476.3572827692278</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>111.65443748848338</v>
+        <v>3446.5013516908739</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>113.74888811895212</v>
+        <v>3417.0503242500572</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>118.7478720436164</v>
+        <v>3388.1428907323671</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>122.97251747857969</v>
+        <v>3359.6713531659943</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>130.29309794887587</v>
+        <v>3331.712006983435</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>136.72564073831586</v>
+        <v>3304.1908506184373</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>143.375363043438</v>
+        <v>3277.135415908343</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>147.410562186639</v>
+        <v>3250.5143665598725</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>158.59944466148954</v>
+        <v>3224.3959309730676</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>167.85632827100608</v>
+        <v>3198.6847122202807</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>169.47385373990926</v>
+        <v>3173.302056453816</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>170.14310594464422</v>
+        <v>3148.3891324177071</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>175.51065307154516</v>
+        <v>3123.8026938536641</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>191.80019938750166</v>
+        <v>3099.6251847578219</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>192.62098302904775</v>
+        <v>3075.8329118318593</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>199.029077726292</v>
+        <v>3052.3639252762136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>200.98156107641879</v>
+        <v>3029.2438346441113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>204.5300574453552</v>
+        <v>3006.6142028880126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>207.09805111882102</v>
+        <v>2984.6976345208095</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>208.90808278601614</v>
+        <v>2962.7446714465782</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>219.08947201030051</v>
+        <v>2940.9766868839738</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>226.62034040154018</v>
+        <v>2919.5102322140024</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>229.71375731624883</v>
+        <v>2898.6587959497369</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>231.37666545400964</v>
+        <v>2878.2126870709076</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>234.99283407253398</v>
+        <v>2857.730909608104</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>236.09943257319935</v>
+        <v>2837.9193651707847</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>240.07931758313467</v>
+        <v>2817.9349020427644</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>245.71365179329567</v>
+        <v>2798.246631054476</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>244.01991931513885</v>
+        <v>2778.8393776053799</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>244.47224206911673</v>
+        <v>2760.1453352536842</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>248.90814860646887</v>
+        <v>2741.2453473593423</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>248.77333725932533</v>
+        <v>2722.6464080021547</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>248.90001434724675</v>
+        <v>2704.6029848376502</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>250.92191078262277</v>
+        <v>2686.4627144041965</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>255.77230875675062</v>
+        <v>2668.5538686485575</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>255.27207567594021</v>
+        <v>2651.3140783209806</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>257.50430493136054</v>
+        <v>2633.8734413890766</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>259.52789237947258</v>
+        <v>2616.7050461081499</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>260.62764515190611</v>
+        <v>2600.0244678588497</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>270.8689494624482</v>
+        <v>2584.63398834603</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>283.47174439778564</v>
+        <v>2568.5138466285935</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>294.03008650108353</v>
+        <v>2552.2958163662211</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>308.93903190467563</v>
+        <v>2537.0232359446491</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>307.53032106684981</v>
+        <v>2521.2704036156561</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>328.70650306299171</v>
+        <v>2505.5254517159301</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>354.57752426210959</v>
+        <v>2490.1561021956677</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>370.49389494151256</v>
+        <v>2475.9079351583591</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>399.25617768007362</v>
+        <v>2460.7747805131416</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>447.52470056892247</v>
+        <v>2446.1505784685673</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>445.6110894685969</v>
+        <v>2432.2246182848312</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>447.72293320083048</v>
+        <v>2417.9566551136959</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>454.30314095663562</v>
+        <v>2404.5172359581966</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>473.40221893731893</v>
+        <v>2390.4306434502264</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>519.33126609458861</v>
+        <v>2376.3827991847775</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>544.2848053701365</v>
+        <v>2362.5192616174236</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>575.94120411711128</v>
+        <v>2348.9218923542658</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>910.23574893291504</v>
+        <v>2335.288801535638</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>906.9922916762597</v>
+        <v>2321.887631925877</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>915.38586340463655</v>
+        <v>2308.6125429691247</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>979.63041069572841</v>
+        <v>2295.4809823506234</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1027.0265782324821</v>
+        <v>2282.4842183172977</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1085.6377152879322</v>
+        <v>2269.7658833380865</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1135.1405196251997</v>
+        <v>2257.3247092612505</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1576.007823032108</v>
+        <v>2244.7195806969262</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1658.1785812238998</v>
+        <v>2232.4330699662796</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1759.0293567408387</v>
+        <v>2220.1085186102259</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1771.6161524256293</v>
+        <v>2208.1533502072903</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1803.5816073155936</v>
+        <v>2196.112456875976</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>2566.1573615396837</v>
+        <v>2184.3496773941324</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>2562.3358952464291</v>
+        <v>2173.0434140094167</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>3099.0596508705721</v>
+        <v>2162.0754890602789</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>3083.2732615649675</v>
+        <v>2150.6638764158429</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>3105.6072512733786</v>
+        <v>2139.7679404637965</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>3114.6675163519385</v>
+        <v>2128.5576080096007</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>3117.6359241301598</v>
+        <v>2117.8523058682695</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>3119.8296238123962</v>
+        <v>2106.9563223560963</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>3134.4939173658822</v>
+        <v>2096.1135571976315</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>3545.0165271811147</v>
+        <v>2085.3296801675924</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>3528.0892841611458</v>
+        <v>2075.5127010554861</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>3517.827739797227</v>
+        <v>2065.1188421926959</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>3897.1646152491985</v>
+        <v>2055.6360333803914</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>3877.5923607645177</v>
+        <v>2047.0936289183369</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>3863.8185845098023</v>
+        <v>2037.1493522886096</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>3884.2793852978102</v>
+        <v>2027.4262792386501</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>4230.6968181944621</v>
+        <v>2017.7134251785747</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>4320.9101200982104</v>
+        <v>2007.6751804311104</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>4301.5103414849027</v>
+        <v>1998.7675050468019</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>4321.5183372984202</v>
+        <v>1989.5889415752279</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>4300.4711110729331</v>
+        <v>1981.0232418993633</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>4282.3188830810896</v>
+        <v>1972.8583131824519</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>4272.1376387876771</v>
+        <v>1963.2931650923726</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>5496.5232583704055</v>
+        <v>1955.0516792812136</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>5472.1651040632078</v>
+        <v>1945.6652758357682</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>5448.373030963462</v>
+        <v>1936.7407050183251</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>5593.652076312128</v>
+        <v>1927.9380122649798</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>5568.3469299776989</v>
+        <v>1920.4079927427497</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>5543.6173094675923</v>
+        <v>1911.809188170261</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>5522.7528676032298</v>
+        <v>1902.8376072106992</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>6220.7018264452854</v>
+        <v>1894.1910094940661</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>6195.4474482374681</v>
+        <v>1885.3848814703053</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>6167.3514633896484</v>
+        <v>1876.7022864677058</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>6324.8826120037193</v>
+        <v>1869.1058583539896</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>6297.2397733838834</v>
+        <v>1861.5163647717714</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>6269.0770257148315</v>
+        <v>1853.4004716282238</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>6243.4962905344819</v>
+        <v>1845.0333718678814</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>6506.0035999758329</v>
+        <v>1837.1464760481751</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>6476.9241143564768</v>
+        <v>1829.7109201896167</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>6452.4140392280387</v>
+        <v>1822.2314817534382</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>6507.0075601608041</v>
+        <v>1814.7577385153043</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>6478.312510893471</v>
+        <v>1808.7706659443513</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>6450.0854835879527</v>
+        <v>1802.9336436084898</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>6422.3526079666008</v>
+        <v>1801.8032389719485</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>6466.2052248592972</v>
+        <v>1794.2207337319348</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>6437.9872107349447</v>
+        <v>1787.6738641766774</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>6411.3407650378895</v>
+        <v>1786.6984295158875</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>6388.6751066389788</v>
+        <v>1782.6724192073057</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>6361.1791691968292</v>
+        <v>1775.6256555567541</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>6333.9989163281425</v>
+        <v>1770.2670939116263</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>6308.278698540078</v>
+        <v>1770.3923636077943</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>6309.7781777366072</v>
+        <v>1776.0930254806242</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>6283.521406726537</v>
+        <v>1775.8093160921469</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>6259.2122756481876</v>
+        <v>1773.6307403577096</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>6237.6688687679443</v>
+        <v>1768.8367397205752</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>6211.7767684194641</v>
+        <v>1762.3299393919151</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>6186.3385072433948</v>
+        <v>1757.0316592745835</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>6161.5101697766486</v>
+        <v>1751.9378421614758</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>6139.2272208027471</v>
+        <v>1746.1733244620232</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>6114.5255164424416</v>
+        <v>1741.9512267861865</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>6090.2964929944328</v>
+        <v>1750.7273369926584</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>6066.8564852738336</v>
+        <v>1745.6921450811155</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>6044.5265429075407</v>
+        <v>1746.8736750016567</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>6020.6143510562888</v>
+        <v>1753.5750298417638</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>5996.3945043204776</v>
+        <v>1747.0873891323383</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>5972.4044627153098</v>
+        <v>1750.5796502844066</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>5949.8797608210489</v>
+        <v>1767.5143094526611</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>5927.4686964908597</v>
+        <v>1785.6790074113242</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>5904.0641233212355</v>
+        <v>1786.4196220392246</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>5882.1950164123336</v>
+        <v>1788.6349038211815</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>5860.387789475627</v>
+        <v>1800.5367896472987</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>5838.3991510306178</v>
+        <v>1795.5194290019856</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>5816.3121268966579</v>
+        <v>1806.2087788218519</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>5794.9059866282178</v>
+        <v>1806.4444909700767</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>5773.4370532822641</v>
+        <v>1801.4499507609296</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>5751.1937932339606</v>
+        <v>1800.8762221241393</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>5729.5968022299294</v>
+        <v>1799.9768625411525</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>5709.9854568997771</v>
+        <v>1798.6892423244983</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>5692.7198981919264</v>
+        <v>1792.8326546569465</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>5671.0831892016668</v>
+        <v>1790.7215625293045</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>5650.0516591006262</v>
+        <v>1785.5546734117645</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>5632.2899917434361</v>
+        <v>1782.4475300298236</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>5612.4553981370818</v>
+        <v>1776.6218186443157</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>5593.6278412405218</v>
+        <v>1773.2859579613248</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>5574.6400110428867</v>
+        <v>1768.9497366471858</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>5559.5306815414997</v>
+        <v>1764.8921136833953</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>5539.1676759524371</v>
+        <v>1758.8084656395686</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>5519.3752280813478</v>
+        <v>1755.3726940130737</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>5500.7055964644969</v>
+        <v>1748.9528303407646</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>5481.6201808271198</v>
+        <v>1742.7303293409348</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>5462.9087112976513</v>
+        <v>1738.9143256281843</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>5443.3290404926456</v>
+        <v>1734.4195533905918</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>5424.0602702382912</v>
+        <v>1728.1651006128011</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>5406.2147977093764</v>
+        <v>1723.7041300341639</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>5386.7842948762755</v>
+        <v>1717.9639946418683</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>5368.8746934245128</v>
+        <v>1712.4227893722002</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>5350.1512725103676</v>
+        <v>1707.1813817288698</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>5331.9205849028322</v>
+        <v>1704.5407846785311</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>5313.7185849752168</v>
+        <v>1699.2828065534438</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>5296.3429735400823</v>
+        <v>1693.3107813378781</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>5277.7929279011059</v>
+        <v>1687.7839536669596</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>5259.9201174936225</v>
+        <v>1682.4412801220926</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>5243.4487340148762</v>
+        <v>1676.8447492630917</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>5225.2772081160083</v>
+        <v>1671.0021189977128</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>5208.46819163289</v>
+        <v>1665.9107590181709</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>5193.3663436811275</v>
+        <v>1660.1898744152909</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>5178.0282471099754</v>
+        <v>1654.5215371960878</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>5160.3483588210484</v>
+        <v>1649.2607996513661</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>5143.1251510025168</v>
+        <v>1643.8621666060087</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>5126.6597479981001</v>
+        <v>1638.2956947184884</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>5109.4036196562538</v>
+        <v>1632.7830182550724</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>5092.899952339113</v>
+        <v>1627.5155362146243</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>5075.8053545723233</v>
+        <v>1622.0255546493945</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>5058.9745844516701</v>
+        <v>1616.6007679967465</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>5042.0204288121477</v>
+        <v>1611.1824668495397</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>5026.2561368701445</v>
+        <v>1605.8223813741756</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>5011.6425651809577</v>
+        <v>1601.0748413024066</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>4995.4770688207118</v>
+        <v>1596.3279895548665</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>4979.1453453990971</v>
+        <v>1591.1297838502433</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>4963.8718288626023</v>
+        <v>1585.8786714399423</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>4947.752979506894</v>
+        <v>1580.9201015344945</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>4931.9786927655832</v>
+        <v>1575.8176312433768</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>4915.8726176026357</v>
+        <v>1571.2038521021345</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>4900.1032123716104</v>
+        <v>1566.8031157205951</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>4884.5452840573917</v>
+        <v>1561.803892473094</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>4870.0077820351744</v>
+        <v>1556.8354783150678</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>4855.2912585272379</v>
+        <v>1551.8144803021703</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>4843.2339828298718</v>
+        <v>1546.8345232008126</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>4827.9344849634945</v>
+        <v>1542.4749189008132</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>4813.0674276598666</v>
+        <v>1537.633563710034</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>4798.3752138500467</v>
+        <v>1532.801983975145</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>4785.7421698395528</v>
+        <v>1527.9560756762835</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>4771.9294580189653</v>
+        <v>1523.7314612615005</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>4758.7300188259333</v>
+        <v>1518.9677445756602</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>4743.9296795509445</v>
+        <v>1514.2568856754372</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>4729.0591154350132</v>
+        <v>1509.6032555845493</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>4715.7830767260848</v>
+        <v>1504.9253807782097</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>4701.4776104714128</v>
+        <v>1500.2460184554295</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>4687.927671701802</v>
+        <v>1496.0454640838818</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>4673.7871648386454</v>
+        <v>1491.4225656335193</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>4660.1634617835862</v>
+        <v>1486.8559593155142</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>4646.0796334287361</v>
+        <v>1482.3246584842882</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>4632.6567972499925</v>
+        <v>1477.9227803365045</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>4619.0869857102534</v>
+        <v>1473.4034634446919</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>4606.6199313113484</v>
+        <v>1468.9392847471022</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>4592.7575459420177</v>
+        <v>1464.8400864883358</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>4579.0257525741836</v>
+        <v>1460.555940270553</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>4565.3047283531278</v>
+        <v>1456.2058151948456</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>4552.4689726786191</v>
+        <v>1452.6028684584403</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>4539.0501274830804</v>
+        <v>1448.2625008472307</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>4525.8318169366758</v>
+        <v>1443.9271527787</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>4512.8254990967125</v>
+        <v>1440.0948665314299</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>4499.4532003007198</v>
+        <v>1435.8981701569458</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>4486.1018680148763</v>
+        <v>1431.8330904932579</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>4472.8549198943001</v>
+        <v>1427.6272746915602</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>4460.0018286710374</v>
+        <v>1424.5435173884748</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>4446.8848454437566</v>
+        <v>1420.3823170887852</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>4435.1936573970443</v>
+        <v>1416.513915330107</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>4422.6114301817342</v>
+        <v>1412.3754424333686</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>4409.7689670518284</v>
+        <v>1408.3570501351669</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>4396.9645167659946</v>
+        <v>1404.4449637777755</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>4384.74735467752</v>
+        <v>1400.6496373930895</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>4372.3935067883103</v>
+        <v>1397.1288117703805</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>4359.8110367801992</v>
+        <v>1393.2675911735109</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>4347.3205298964167</v>
+        <v>1389.3428430321519</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>4334.8880827997855</v>
+        <v>1385.3973377851469</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>4322.5033400246375</v>
+        <v>1381.5711831763012</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>4310.3489553353829</v>
+        <v>1377.8838416767787</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>4298.2491514628264</v>
+        <v>1374.3806523414862</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>4286.0921696176865</v>
+        <v>1370.6012274631353</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>4274.0137545367088</v>
+        <v>1366.7333185689688</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>4262.0253741403212</v>
+        <v>1362.9260930472867</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>4250.1126679700455</v>
+        <v>1359.098167993064</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>4238.3444472184456</v>
+        <v>1355.3848961566937</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>4226.5072312987832</v>
+        <v>1351.5991423688531</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>4214.7380345236006</v>
+        <v>1347.924539715829</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>4203.0342959676063</v>
+        <v>1344.5162861325737</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>4191.3978993571836</v>
+        <v>1340.8686937339098</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>4179.926221428429</v>
+        <v>1337.1647702480557</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>4168.640587688179</v>
+        <v>1333.4981773186439</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>4157.1929477258882</v>
+        <v>1329.9639257953108</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>1326.3282538758024</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>1323.3521962902014</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>1319.7988269350926</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>1316.6001552902376</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>1313.1136437541179</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>1309.9193199749768</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>1306.5564948377323</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>1303.147420469197</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>1299.6927040582016</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>1296.2445786724643</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>1292.8234948910649</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>1289.5186693832325</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>1286.1119068343808</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>1282.9897502730903</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>1279.7722993344426</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>1276.4071160698952</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>1274.0142505516553</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>1270.78835750504</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>1267.6102385796532</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>1264.4723946021015</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>1261.7726213349576</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>1258.5066015983475</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>1255.2561527370369</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>1252.1861642255194</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>1249.0831452166067</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>1245.9470098013403</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>1242.999353681266</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>1239.8815997124943</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>1236.9659266355163</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>1233.9477131178446</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>1231.0672742851093</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>1227.968646255732</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>1224.8976986678222</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>1221.9498138093425</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>1218.9247313478377</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>1215.9319057927946</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>1213.211594190584</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>1210.2747805409119</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>1207.2758501444118</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>1204.4042020949346</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>1201.4433022736043</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>1198.606882603352</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>1196.0354174570255</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>1193.492421113313</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>1190.5902923683541</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>1187.8774543005363</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>1185.1127593354252</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>1182.2563754948267</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>1179.5923162039423</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>1176.9601349984634</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>1174.1242769641137</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>1171.3044458188338</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>1168.5847875131419</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>1165.9309752777908</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>1163.3249140532198</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>1160.5946281816989</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>1157.8385392996925</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>1155.1033897197763</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>1152.4307574418697</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>1149.7183855464534</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>1147.0254261238515</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>1144.3336151934604</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>1141.6540203257912</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>1138.9893262091623</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>1136.3497072383066</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>1133.7316369240766</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>1131.1189035141253</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>1128.5200945207496</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>1126.0155124165224</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>1123.4258998184571</v>
       </c>
     </row>
   </sheetData>
